--- a/ensayo_buscar.xlsx
+++ b/ensayo_buscar.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,9 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -426,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +492,1308 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>43784.11127167824</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2523</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>246360</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-73.8224</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6.8034</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>POINT (-73.8224 6.8034)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>43784.11226319445</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2540</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>246377</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-73.6943</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6.7878</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>POINT (-73.6943 6.7878)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>43784.11119123843</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2519</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>246356</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-73.771</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7.061</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>POINT (-73.771 7.061)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>43784.11294383102</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2544</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>246381</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-73.7469</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.0671</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>POINT (-73.7469 7.0671)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>43784.11127734954</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2529</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>246366</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-73.7986</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6.7974</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>POINT (-73.79859999999999 6.7974)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>43784.11325879629</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>246382</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-73.6974</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>7.0749</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>POINT (-73.6974 7.0749)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>43784.11375362269</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2546</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>246383</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-73.8421</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6.7985</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>POINT (-73.8421 6.7985)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>43784.11126971065</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2522</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>246359</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-73.8114</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.7944</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>POINT (-73.81140000000001 6.7944)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>43784.11181003472</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2530</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>246367</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-73.7429</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7.0813</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>POINT (-73.74290000000001 7.0813)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>43784.11225447917</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2533</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>246370</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-73.8455</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6.7835</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-7.8</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>POINT (-73.8455 6.7835)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>43784.11293576389</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2543</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>246380</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-73.6571</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>7.0695</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>POINT (-73.6571 7.0695)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>43784.11126956018</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>246357</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>-73.8103</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.7984</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>POINT (-73.8103 6.7984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>43784.11225883102</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2537</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>246374</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-73.8607</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6.9212</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>POINT (-73.86069999999999 6.9212)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>43784.11190393518</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2532</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>246369</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-73.8394</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6.7948</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>POINT (-73.8394 6.7948)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>43784.11119108796</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2518</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>246355</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-73.6704</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>7.0575</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>POINT (-73.6704 7.0575)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>43784.11118614583</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2517</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>246354</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-73.6794</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7.0708</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>POINT (-73.6794 7.0708)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>43784.11271153935</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2542</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>246379</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>-73.7869</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.7671</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>POINT (-73.7869 6.7671)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>43784.11127503472</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2528</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>246365</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-73.8102</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6.7938</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>POINT (-73.81019999999999 6.7938)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>43784.11190390046</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2531</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>246368</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-73.7673</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6.8074</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-14.1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>POINT (-73.76730000000001 6.8074)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>43784.11127418982</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2527</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>246364</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-73.8057</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6.794</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>POINT (-73.8057 6.794)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>43784.11118587963</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2516</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>246353</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-73.6767</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>7.0689</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-20.1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>POINT (-73.6767 7.0689)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>43784.11225471065</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2534</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>246371</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-73.8388</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6.8205</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-20.8</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>POINT (-73.83880000000001 6.8205)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>43784.11226215278</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2538</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>246375</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>-73.7393</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>6.7962</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-23.8</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>POINT (-73.7393 6.7962)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>43784.11225633102</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2536</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>246373</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-73.8365</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>6.8235</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-28.9</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>POINT (-73.8365 6.8235)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>43784.1112727662</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2526</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>246363</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-73.8118</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>6.7927</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-31.6</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>POINT (-73.81180000000001 6.7927)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>43784.11225563657</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2535</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>246372</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-73.7986</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>6.8115</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-33.3</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>POINT (-73.79859999999999 6.8115)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>43784.11118521991</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>246352</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-73.6665</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7.0779999999999985</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-35.9</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>POINT (-73.6665 7.077999999999999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>43784.11127230324</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2525</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>246362</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>-73.8078</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>6.8048</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>39</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-39</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>POINT (-73.8078 6.8048)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>43784.11226304398</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2539</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>246376</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-73.7028</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6.7866</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-55.3</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>POINT (-73.7028 6.7866)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>43784.111271875</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2524</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>246361</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>-73.8108</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6.7966</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>56</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-56</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>POINT (-73.8108 6.7966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>43784.1112696412</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2521</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>246358</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>-73.8077</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>6.7946</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-134.8</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>POINT (-73.8077 6.7946)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ensayo_buscar.xlsx
+++ b/ensayo_buscar.xlsx
@@ -497,7 +497,7 @@
         <v>43784.11127167824</v>
       </c>
       <c r="B2" t="n">
-        <v>2523</v>
+        <v>2589</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
         <v>43784.11226319445</v>
       </c>
       <c r="B3" t="n">
-        <v>2540</v>
+        <v>2606</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
         <v>43784.11119123843</v>
       </c>
       <c r="B4" t="n">
-        <v>2519</v>
+        <v>2585</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         <v>43784.11294383102</v>
       </c>
       <c r="B5" t="n">
-        <v>2544</v>
+        <v>2610</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>43784.11127734954</v>
       </c>
       <c r="B6" t="n">
-        <v>2529</v>
+        <v>2595</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         <v>43784.11325879629</v>
       </c>
       <c r="B7" t="n">
-        <v>2545</v>
+        <v>2611</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>43784.11375362269</v>
       </c>
       <c r="B8" t="n">
-        <v>2546</v>
+        <v>2612</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -791,7 +791,7 @@
         <v>43784.11126971065</v>
       </c>
       <c r="B9" t="n">
-        <v>2522</v>
+        <v>2588</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43784.11181003472</v>
       </c>
       <c r="B10" t="n">
-        <v>2530</v>
+        <v>2596</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43784.11225447917</v>
       </c>
       <c r="B11" t="n">
-        <v>2533</v>
+        <v>2599</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>43784.11293576389</v>
       </c>
       <c r="B12" t="n">
-        <v>2543</v>
+        <v>2609</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>43784.11126956018</v>
       </c>
       <c r="B13" t="n">
-        <v>2520</v>
+        <v>2586</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
         <v>43784.11225883102</v>
       </c>
       <c r="B14" t="n">
-        <v>2537</v>
+        <v>2603</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>43784.11190393518</v>
       </c>
       <c r="B15" t="n">
-        <v>2532</v>
+        <v>2598</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>43784.11119108796</v>
       </c>
       <c r="B16" t="n">
-        <v>2518</v>
+        <v>2584</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         <v>43784.11118614583</v>
       </c>
       <c r="B17" t="n">
-        <v>2517</v>
+        <v>2583</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>43784.11271153935</v>
       </c>
       <c r="B18" t="n">
-        <v>2542</v>
+        <v>2608</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>43784.11127503472</v>
       </c>
       <c r="B19" t="n">
-        <v>2528</v>
+        <v>2594</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>43784.11190390046</v>
       </c>
       <c r="B20" t="n">
-        <v>2531</v>
+        <v>2597</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         <v>43784.11127418982</v>
       </c>
       <c r="B21" t="n">
-        <v>2527</v>
+        <v>2593</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         <v>43784.11118587963</v>
       </c>
       <c r="B22" t="n">
-        <v>2516</v>
+        <v>2582</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1379,7 +1379,7 @@
         <v>43784.11225471065</v>
       </c>
       <c r="B23" t="n">
-        <v>2534</v>
+        <v>2600</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43784.11226215278</v>
       </c>
       <c r="B24" t="n">
-        <v>2538</v>
+        <v>2604</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>43784.11225633102</v>
       </c>
       <c r="B25" t="n">
-        <v>2536</v>
+        <v>2602</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>43784.1112727662</v>
       </c>
       <c r="B26" t="n">
-        <v>2526</v>
+        <v>2592</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>43784.11225563657</v>
       </c>
       <c r="B27" t="n">
-        <v>2535</v>
+        <v>2601</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>43784.11118521991</v>
       </c>
       <c r="B28" t="n">
-        <v>2515</v>
+        <v>2581</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         <v>43784.11127230324</v>
       </c>
       <c r="B29" t="n">
-        <v>2525</v>
+        <v>2591</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43784.11226304398</v>
       </c>
       <c r="B30" t="n">
-        <v>2539</v>
+        <v>2605</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>43784.111271875</v>
       </c>
       <c r="B31" t="n">
-        <v>2524</v>
+        <v>2590</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
         <v>43784.1112696412</v>
       </c>
       <c r="B32" t="n">
-        <v>2521</v>
+        <v>2587</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
